--- a/examples/filled-data-table.xlsx
+++ b/examples/filled-data-table.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -455,8 +455,8 @@
   </sheetPr>
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -1228,6 +1228,11 @@
         </is>
       </c>
     </row>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
     <row r="50" ht="12.75" customHeight="1" s="4">
       <c r="B50" s="3" t="n"/>
     </row>
